--- a/videosExcel.xlsx
+++ b/videosExcel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="20260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="videos" sheetId="1" r:id="rId1"/>
@@ -236,9 +236,6 @@
           </cell>
         </row>
         <row r="33">
-          <cell r="AD33">
-            <v>4.2155329743505873E-3</v>
-          </cell>
           <cell r="AE33">
             <v>10.122404682274208</v>
           </cell>
@@ -259,9 +256,6 @@
           </cell>
         </row>
         <row r="34">
-          <cell r="AD34">
-            <v>4.422065171836481E-3</v>
-          </cell>
           <cell r="AE34">
             <v>10.118363015075275</v>
           </cell>
@@ -282,9 +276,6 @@
           </cell>
         </row>
         <row r="35">
-          <cell r="AD35">
-            <v>6.9253609178478344E-3</v>
-          </cell>
           <cell r="AE35">
             <v>10.126310975610028</v>
           </cell>
@@ -305,9 +296,6 @@
           </cell>
         </row>
         <row r="36">
-          <cell r="AD36">
-            <v>7.0122871945566007E-3</v>
-          </cell>
           <cell r="AE36">
             <v>10.122926963993399</v>
           </cell>
@@ -328,9 +316,6 @@
           </cell>
         </row>
         <row r="37">
-          <cell r="AD37">
-            <v>5.7492592644203065E-3</v>
-          </cell>
           <cell r="AE37">
             <v>10.111522123894652</v>
           </cell>
@@ -351,9 +336,6 @@
           </cell>
         </row>
         <row r="38">
-          <cell r="AD38">
-            <v>3.2385401505251373E-3</v>
-          </cell>
           <cell r="AE38">
             <v>10.27301580498275</v>
           </cell>
@@ -374,9 +356,6 @@
           </cell>
         </row>
         <row r="39">
-          <cell r="AD39">
-            <v>6.3672554396339946E-3</v>
-          </cell>
           <cell r="AE39">
             <v>10.070849447236048</v>
           </cell>
@@ -397,9 +376,6 @@
           </cell>
         </row>
         <row r="40">
-          <cell r="AD40">
-            <v>6.8138427152222777E-3</v>
-          </cell>
           <cell r="AE40">
             <v>10.132851727982203</v>
           </cell>
@@ -420,9 +396,6 @@
           </cell>
         </row>
         <row r="41">
-          <cell r="AD41">
-            <v>8.4729514288380478E-3</v>
-          </cell>
           <cell r="AE41">
             <v>10.10331869643494</v>
           </cell>
@@ -443,9 +416,6 @@
           </cell>
         </row>
         <row r="42">
-          <cell r="AD42">
-            <v>8.4209559639078849E-3</v>
-          </cell>
           <cell r="AE42">
             <v>10.103624622812271</v>
           </cell>
@@ -466,9 +436,6 @@
           </cell>
         </row>
         <row r="43">
-          <cell r="AD43">
-            <v>9.6700446265201526E-3</v>
-          </cell>
           <cell r="AE43">
             <v>10.117567559611773</v>
           </cell>
@@ -489,9 +456,6 @@
           </cell>
         </row>
         <row r="44">
-          <cell r="AD44">
-            <v>7.9516282933473174E-3</v>
-          </cell>
           <cell r="AE44">
             <v>10.10192687411597</v>
           </cell>
@@ -512,9 +476,6 @@
           </cell>
         </row>
         <row r="45">
-          <cell r="AD45">
-            <v>9.8232151758798902E-3</v>
-          </cell>
           <cell r="AE45">
             <v>10.096097067280533</v>
           </cell>
@@ -535,9 +496,6 @@
           </cell>
         </row>
         <row r="46">
-          <cell r="AD46">
-            <v>1.0000104660430336E-2</v>
-          </cell>
           <cell r="AE46">
             <v>10.103747901388381</v>
           </cell>
@@ -855,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -882,10 +840,9 @@
 ",A1,"-",B1,"
 Cooling Plate Temp (C): ",E1,"
 Chamber Temp: (C): ",F1,"
-Humidity (%RH): ",G1,"
-Water Collection Rate: ",H1
+Humidity (%RH): ",G1
 )</f>
-        <v>Bare Glass Sample (control)_x000D_180217-BG1-T1_x000D_Cooling Plate Temp (C): 10.1 +/- 0.2_x000D_Chamber Temp: (C): 24.2 +/- 0.2_x000D_Humidity (%RH): 80.9 +/- 0.7_x000D_Water Collection Rate: 8.6E-03</v>
+        <v>Bare Glass Sample (control)_x000D_180217-BG1-T1_x000D_Cooling Plate Temp (C): 10.1 +/- 0.2_x000D_Chamber Temp: (C): 24.2 +/- 0.2_x000D_Humidity (%RH): 80.9 +/- 0.7</v>
       </c>
       <c r="E1" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE32,1)," +/- ",ROUND([1]Data!AF32,1))</f>
@@ -899,15 +856,11 @@
         <f>_xlfn.CONCAT(ROUND([1]Data!AI32,1)," +/- ",ROUND([1]Data!AJ32,1))</f>
         <v>80.9 +/- 0.7</v>
       </c>
-      <c r="H1" t="str">
-        <f>_xlfn.CONCAT(ROUND([1]Data!AD32*1000,1),"E-03")</f>
-        <v>8.6E-03</v>
-      </c>
       <c r="I1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -922,15 +875,9 @@
 ",A2,"-",B2,"
 Cooling Plate Temp (C): ",E2,"
 Chamber Temp: (C): ",F2,"
-Humidity (%RH): ",G2,"
-Water Collection Rate: ",H2
+Humidity (%RH): ",G2
 )</f>
-        <v>Bare Glass Sample (control)
-180217-BG1-T2
-Cooling Plate Temp (C): 10.1 +/- 0.3
-Chamber Temp: (C): 22.8 +/- 0
-Humidity (%RH): 90 +/- 0.2
-Water Collection Rate: 4.2E-03</v>
+        <v>Bare Glass Sample (control)_x000D_180217-BG1-T2_x000D_Cooling Plate Temp (C): 10.1 +/- 0.3_x000D_Chamber Temp: (C): 22.8 +/- 0_x000D_Humidity (%RH): 90 +/- 0.2</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE33,1)," +/- ",ROUND([1]Data!AF33,1))</f>
@@ -944,15 +891,11 @@
         <f>_xlfn.CONCAT(ROUND([1]Data!AI33,1)," +/- ",ROUND([1]Data!AJ33,1))</f>
         <v>90 +/- 0.2</v>
       </c>
-      <c r="H2" t="str">
-        <f>_xlfn.CONCAT(ROUND([1]Data!AD33*1000,1),"E-03")</f>
-        <v>4.2E-03</v>
-      </c>
       <c r="I2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -964,12 +907,7 @@
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hydrophobic Sample (control)
-180217-HO1-T1
-Cooling Plate Temp (C): 10.1 +/- 0.2
-Chamber Temp: (C): 22.7 +/- 0.2
-Humidity (%RH): 88.4 +/- 0.2
-Water Collection Rate: 4.4E-03</v>
+        <v>Hydrophobic Sample (control)_x000D_180217-HO1-T1_x000D_Cooling Plate Temp (C): 10.1 +/- 0.2_x000D_Chamber Temp: (C): 22.7 +/- 0.2_x000D_Humidity (%RH): 88.4 +/- 0.2</v>
       </c>
       <c r="E3" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE34,1)," +/- ",ROUND([1]Data!AF34,1))</f>
@@ -983,15 +921,11 @@
         <f>_xlfn.CONCAT(ROUND([1]Data!AI34,1)," +/- ",ROUND([1]Data!AJ34,1))</f>
         <v>88.4 +/- 0.2</v>
       </c>
-      <c r="H3" t="str">
-        <f>_xlfn.CONCAT(ROUND([1]Data!AD34*1000,1),"E-03")</f>
-        <v>4.4E-03</v>
-      </c>
       <c r="I3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1003,12 +937,7 @@
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hydrophobic Sample (control)
-180217-HO1-T2
-Cooling Plate Temp (C): 10.1 +/- 0.3
-Chamber Temp: (C): 23 +/- 0.3
-Humidity (%RH): 89.9 +/- 0.3
-Water Collection Rate: 6.9E-03</v>
+        <v>Hydrophobic Sample (control)_x000D_180217-HO1-T2_x000D_Cooling Plate Temp (C): 10.1 +/- 0.3_x000D_Chamber Temp: (C): 23 +/- 0.3_x000D_Humidity (%RH): 89.9 +/- 0.3</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE35,1)," +/- ",ROUND([1]Data!AF35,1))</f>
@@ -1022,15 +951,11 @@
         <f>_xlfn.CONCAT(ROUND([1]Data!AI35,1)," +/- ",ROUND([1]Data!AJ35,1))</f>
         <v>89.9 +/- 0.3</v>
       </c>
-      <c r="H4" t="str">
-        <f>_xlfn.CONCAT(ROUND([1]Data!AD35*1000,1),"E-03")</f>
-        <v>6.9E-03</v>
-      </c>
       <c r="I4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1042,12 +967,7 @@
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hydrophobic Sample (control)
-180217-HO1-T3
-Cooling Plate Temp (C): 10.1 +/- 0.3
-Chamber Temp: (C): 23 +/- 0.4
-Humidity (%RH): 88.8 +/- 1.2
-Water Collection Rate: 7E-03</v>
+        <v>Hydrophobic Sample (control)_x000D_180217-HO1-T3_x000D_Cooling Plate Temp (C): 10.1 +/- 0.3_x000D_Chamber Temp: (C): 23 +/- 0.4_x000D_Humidity (%RH): 88.8 +/- 1.2</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE36,1)," +/- ",ROUND([1]Data!AF36,1))</f>
@@ -1061,15 +981,11 @@
         <f>_xlfn.CONCAT(ROUND([1]Data!AI36,1)," +/- ",ROUND([1]Data!AJ36,1))</f>
         <v>88.8 +/- 1.2</v>
       </c>
-      <c r="H5" t="str">
-        <f>_xlfn.CONCAT(ROUND([1]Data!AD36*1000,1),"E-03")</f>
-        <v>7E-03</v>
-      </c>
       <c r="I5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1081,12 +997,7 @@
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Bare Glass Sample (control)
-180220-BG1-T1
-Cooling Plate Temp (C): 10.1 +/- 0.2
-Chamber Temp: (C): 23.1 +/- 0.2
-Humidity (%RH): 91.9 +/- 0.4
-Water Collection Rate: 5.7E-03</v>
+        <v>Bare Glass Sample (control)_x000D_180220-BG1-T1_x000D_Cooling Plate Temp (C): 10.1 +/- 0.2_x000D_Chamber Temp: (C): 23.1 +/- 0.2_x000D_Humidity (%RH): 91.9 +/- 0.4</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE37,1)," +/- ",ROUND([1]Data!AF37,1))</f>
@@ -1100,15 +1011,11 @@
         <f>_xlfn.CONCAT(ROUND([1]Data!AI37,1)," +/- ",ROUND([1]Data!AJ37,1))</f>
         <v>91.9 +/- 0.4</v>
       </c>
-      <c r="H6" t="str">
-        <f>_xlfn.CONCAT(ROUND([1]Data!AD37*1000,1),"E-03")</f>
-        <v>5.7E-03</v>
-      </c>
       <c r="I6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1120,12 +1027,7 @@
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hybrid surface- 1mm features - 4mm distance - 2 rows on top
-180221-HS1mm4mm2row-T1
-Cooling Plate Temp (C): 10.3 +/- 0.7
-Chamber Temp: (C): 22.9 +/- 0.7
-Humidity (%RH): 89.6 +/- 0.4
-Water Collection Rate: 3.2E-03</v>
+        <v>Hybrid surface- 1mm features - 4mm distance - 2 rows on top_x000D_180221-HS1mm4mm2row-T1_x000D_Cooling Plate Temp (C): 10.3 +/- 0.7_x000D_Chamber Temp: (C): 22.9 +/- 0.7_x000D_Humidity (%RH): 89.6 +/- 0.4</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE38,1)," +/- ",ROUND([1]Data!AF38,1))</f>
@@ -1139,15 +1041,11 @@
         <f>_xlfn.CONCAT(ROUND([1]Data!AI38,1)," +/- ",ROUND([1]Data!AJ38,1))</f>
         <v>89.6 +/- 0.4</v>
       </c>
-      <c r="H7" t="str">
-        <f>_xlfn.CONCAT(ROUND([1]Data!AD38*1000,1),"E-03")</f>
-        <v>3.2E-03</v>
-      </c>
       <c r="I7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1159,12 +1057,7 @@
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hybrid surface- 1mm features - 4mm distance - 2 rows on top
-180221-HS1mm4mm2row-T2
-Cooling Plate Temp (C): 10.1 +/- 0.2
-Chamber Temp: (C): 22.9 +/- 0.7
-Humidity (%RH): 91.5 +/- 0.3
-Water Collection Rate: 6.4E-03</v>
+        <v>Hybrid surface- 1mm features - 4mm distance - 2 rows on top_x000D_180221-HS1mm4mm2row-T2_x000D_Cooling Plate Temp (C): 10.1 +/- 0.2_x000D_Chamber Temp: (C): 22.9 +/- 0.7_x000D_Humidity (%RH): 91.5 +/- 0.3</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE39,1)," +/- ",ROUND([1]Data!AF39,1))</f>
@@ -1178,15 +1071,11 @@
         <f>_xlfn.CONCAT(ROUND([1]Data!AI39,1)," +/- ",ROUND([1]Data!AJ39,1))</f>
         <v>91.5 +/- 0.3</v>
       </c>
-      <c r="H8" t="str">
-        <f>_xlfn.CONCAT(ROUND([1]Data!AD39*1000,1),"E-03")</f>
-        <v>6.4E-03</v>
-      </c>
       <c r="I8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1198,12 +1087,7 @@
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hybrid surface- 1mm features - 4mm distance - 2 rows on top
-180221-HS1mm4mm2row-T3
-Cooling Plate Temp (C): 10.1 +/- 0.3
-Chamber Temp: (C): 23.7 +/- 0.3
-Humidity (%RH): 90.9 +/- 0.3
-Water Collection Rate: 6.8E-03</v>
+        <v>Hybrid surface- 1mm features - 4mm distance - 2 rows on top_x000D_180221-HS1mm4mm2row-T3_x000D_Cooling Plate Temp (C): 10.1 +/- 0.3_x000D_Chamber Temp: (C): 23.7 +/- 0.3_x000D_Humidity (%RH): 90.9 +/- 0.3</v>
       </c>
       <c r="E9" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE40,1)," +/- ",ROUND([1]Data!AF40,1))</f>
@@ -1217,15 +1101,11 @@
         <f>_xlfn.CONCAT(ROUND([1]Data!AI40,1)," +/- ",ROUND([1]Data!AJ40,1))</f>
         <v>90.9 +/- 0.3</v>
       </c>
-      <c r="H9" t="str">
-        <f>_xlfn.CONCAT(ROUND([1]Data!AD40*1000,1),"E-03")</f>
-        <v>6.8E-03</v>
-      </c>
       <c r="I9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1237,12 +1117,7 @@
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows on top
-180222-HS2mm4mm2row-T1
-Cooling Plate Temp (C): 10.1 +/- 0.2
-Chamber Temp: (C): 24.1 +/- 0.3
-Humidity (%RH): 90.1 +/- 0.4
-Water Collection Rate: 8.5E-03</v>
+        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows on top_x000D_180222-HS2mm4mm2row-T1_x000D_Cooling Plate Temp (C): 10.1 +/- 0.2_x000D_Chamber Temp: (C): 24.1 +/- 0.3_x000D_Humidity (%RH): 90.1 +/- 0.4</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE41,1)," +/- ",ROUND([1]Data!AF41,1))</f>
@@ -1256,15 +1131,11 @@
         <f>_xlfn.CONCAT(ROUND([1]Data!AI41,1)," +/- ",ROUND([1]Data!AJ41,1))</f>
         <v>90.1 +/- 0.4</v>
       </c>
-      <c r="H10" t="str">
-        <f>_xlfn.CONCAT(ROUND([1]Data!AD41*1000,1),"E-03")</f>
-        <v>8.5E-03</v>
-      </c>
       <c r="I10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1276,12 +1147,7 @@
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows on top
-180222-HS2mm4mm2row-T2
-Cooling Plate Temp (C): 10.1 +/- 0.2
-Chamber Temp: (C): 23.5 +/- 0.3
-Humidity (%RH): 90.1 +/- 0.3
-Water Collection Rate: 8.4E-03</v>
+        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows on top_x000D_180222-HS2mm4mm2row-T2_x000D_Cooling Plate Temp (C): 10.1 +/- 0.2_x000D_Chamber Temp: (C): 23.5 +/- 0.3_x000D_Humidity (%RH): 90.1 +/- 0.3</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE42,1)," +/- ",ROUND([1]Data!AF42,1))</f>
@@ -1295,15 +1161,11 @@
         <f>_xlfn.CONCAT(ROUND([1]Data!AI42,1)," +/- ",ROUND([1]Data!AJ42,1))</f>
         <v>90.1 +/- 0.3</v>
       </c>
-      <c r="H11" t="str">
-        <f>_xlfn.CONCAT(ROUND([1]Data!AD42*1000,1),"E-03")</f>
-        <v>8.4E-03</v>
-      </c>
       <c r="I11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1315,12 +1177,7 @@
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows on top
-180222-HS2mm4mm2row-T3
-Cooling Plate Temp (C): 10.1 +/- 0.2
-Chamber Temp: (C): 24.1 +/- 0.3
-Humidity (%RH): 89.5 +/- 0.3
-Water Collection Rate: 9.7E-03</v>
+        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows on top_x000D_180222-HS2mm4mm2row-T3_x000D_Cooling Plate Temp (C): 10.1 +/- 0.2_x000D_Chamber Temp: (C): 24.1 +/- 0.3_x000D_Humidity (%RH): 89.5 +/- 0.3</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE43,1)," +/- ",ROUND([1]Data!AF43,1))</f>
@@ -1334,15 +1191,11 @@
         <f>_xlfn.CONCAT(ROUND([1]Data!AI43,1)," +/- ",ROUND([1]Data!AJ43,1))</f>
         <v>89.5 +/- 0.3</v>
       </c>
-      <c r="H12" t="str">
-        <f>_xlfn.CONCAT(ROUND([1]Data!AD43*1000,1),"E-03")</f>
-        <v>9.7E-03</v>
-      </c>
       <c r="I12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1354,12 +1207,7 @@
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Bare Glass Sample (control)
-180225-BG3-T1
-Cooling Plate Temp (C): 10.1 +/- 0.2
-Chamber Temp: (C): 23.9 +/- 0.3
-Humidity (%RH): 89.4 +/- 0.4
-Water Collection Rate: 8E-03</v>
+        <v>Bare Glass Sample (control)_x000D_180225-BG3-T1_x000D_Cooling Plate Temp (C): 10.1 +/- 0.2_x000D_Chamber Temp: (C): 23.9 +/- 0.3_x000D_Humidity (%RH): 89.4 +/- 0.4</v>
       </c>
       <c r="E13" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE44,1)," +/- ",ROUND([1]Data!AF44,1))</f>
@@ -1373,15 +1221,11 @@
         <f>_xlfn.CONCAT(ROUND([1]Data!AI44,1)," +/- ",ROUND([1]Data!AJ44,1))</f>
         <v>89.4 +/- 0.4</v>
       </c>
-      <c r="H13" t="str">
-        <f>_xlfn.CONCAT(ROUND([1]Data!AD44*1000,1),"E-03")</f>
-        <v>8E-03</v>
-      </c>
       <c r="I13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1393,12 +1237,7 @@
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows in the middle
-180227-HS2mm4mm2row-mid-T1
-Cooling Plate Temp (C): 10.1 +/- 0.2
-Chamber Temp: (C): 24.1 +/- 0.3
-Humidity (%RH): 89.6 +/- 0.3
-Water Collection Rate: 9.8E-03</v>
+        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows in the middle_x000D_180227-HS2mm4mm2row-mid-T1_x000D_Cooling Plate Temp (C): 10.1 +/- 0.2_x000D_Chamber Temp: (C): 24.1 +/- 0.3_x000D_Humidity (%RH): 89.6 +/- 0.3</v>
       </c>
       <c r="E14" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE45,1)," +/- ",ROUND([1]Data!AF45,1))</f>
@@ -1412,15 +1251,11 @@
         <f>_xlfn.CONCAT(ROUND([1]Data!AI45,1)," +/- ",ROUND([1]Data!AJ45,1))</f>
         <v>89.6 +/- 0.3</v>
       </c>
-      <c r="H14" t="str">
-        <f>_xlfn.CONCAT(ROUND([1]Data!AD45*1000,1),"E-03")</f>
-        <v>9.8E-03</v>
-      </c>
       <c r="I14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1432,12 +1267,7 @@
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows in the middle
-180227-HS2mm4mm2row-mid-T2
-Cooling Plate Temp (C): 10.1 +/- 0.2
-Chamber Temp: (C): 22.8 +/- 0.5
-Humidity (%RH): 90.4 +/- 0.5
-Water Collection Rate: 10E-03</v>
+        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows in the middle_x000D_180227-HS2mm4mm2row-mid-T2_x000D_Cooling Plate Temp (C): 10.1 +/- 0.2_x000D_Chamber Temp: (C): 22.8 +/- 0.5_x000D_Humidity (%RH): 90.4 +/- 0.5</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE46,1)," +/- ",ROUND([1]Data!AF46,1))</f>
@@ -1451,15 +1281,11 @@
         <f>_xlfn.CONCAT(ROUND([1]Data!AI46,1)," +/- ",ROUND([1]Data!AJ46,1))</f>
         <v>90.4 +/- 0.5</v>
       </c>
-      <c r="H15" t="str">
-        <f>_xlfn.CONCAT(ROUND([1]Data!AD46*1000,1),"E-03")</f>
-        <v>10E-03</v>
-      </c>
       <c r="I15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1471,12 +1297,7 @@
       </c>
       <c r="D16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows in the middle
-180227-HS2mm4mm2row-mid-T3
-Cooling Plate Temp (C): 0 +/- 0
-Chamber Temp: (C): 0 +/- 0
-Humidity (%RH): 0 +/- 0
-Water Collection Rate: 0E-03</v>
+        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows in the middle_x000D_180227-HS2mm4mm2row-mid-T3_x000D_Cooling Plate Temp (C): 0 +/- 0_x000D_Chamber Temp: (C): 0 +/- 0_x000D_Humidity (%RH): 0 +/- 0</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE47,1)," +/- ",ROUND([1]Data!AF47,1))</f>
@@ -1489,10 +1310,6 @@
       <c r="G16" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AI47,1)," +/- ",ROUND([1]Data!AJ47,1))</f>
         <v>0 +/- 0</v>
-      </c>
-      <c r="H16" t="str">
-        <f>_xlfn.CONCAT(ROUND([1]Data!AD47*1000,1),"E-03")</f>
-        <v>0E-03</v>
       </c>
       <c r="I16" t="s">
         <v>30</v>

--- a/videosExcel.xlsx
+++ b/videosExcel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="20260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="videos" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
   <si>
     <t>T2</t>
   </si>
@@ -123,13 +123,50 @@
   </si>
   <si>
     <t>Hybrid surface- 2mm features - 4mm distance - 2 rows in the middle</t>
+  </si>
+  <si>
+    <t>180305-HS2mm4mm2x5row-staggered</t>
+  </si>
+  <si>
+    <t>180305-HS2mm4mm2x5row-cubic</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/knPXMR0xFgc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/kuFBsHDhCaQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ejEQlTDK7YA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/9N7XfUM0IIw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/fhAEn2pH4O4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/JbxKySBDGkM</t>
+  </si>
+  <si>
+    <t>Hybrid surface- 2mm features - 4mm distance - entire surface - staggered confirmation</t>
+  </si>
+  <si>
+    <t>Hybrid surface- 2mm features - 4mm distance - entire surface - cubic confirmation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,15 +175,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -154,17 +203,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="40% - Accent2" xfId="1" builtinId="35"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -183,6 +246,8 @@
     <sheetNames>
       <sheetName val="Data"/>
       <sheetName val="Summary"/>
+      <sheetName val="180308-HS2mmALL-cu"/>
+      <sheetName val="180305-HS2mmALL-st"/>
       <sheetName val="180227-HS-2mm-mid"/>
       <sheetName val="180220-HS-2mm"/>
       <sheetName val="180218-HS-1mm"/>
@@ -213,9 +278,6 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="32">
-          <cell r="AD32">
-            <v>8.604435385606039E-3</v>
-          </cell>
           <cell r="AE32">
             <v>10.130210030926555</v>
           </cell>
@@ -513,6 +575,146 @@
           </cell>
           <cell r="AJ46">
             <v>0.52363792617657312</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="AE47">
+            <v>10.091455865629632</v>
+          </cell>
+          <cell r="AF47">
+            <v>0.2379267396977158</v>
+          </cell>
+          <cell r="AG47">
+            <v>22.268079520603589</v>
+          </cell>
+          <cell r="AH47">
+            <v>0.38094624080418649</v>
+          </cell>
+          <cell r="AI47">
+            <v>90.43619490858211</v>
+          </cell>
+          <cell r="AJ47">
+            <v>0.35649921544968483</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="AE48">
+            <v>10.067793239743835</v>
+          </cell>
+          <cell r="AF48">
+            <v>0.17913352174554262</v>
+          </cell>
+          <cell r="AG48">
+            <v>22.527547635275159</v>
+          </cell>
+          <cell r="AH48">
+            <v>0.22451936839210587</v>
+          </cell>
+          <cell r="AI48">
+            <v>90.136334196538812</v>
+          </cell>
+          <cell r="AJ48">
+            <v>0.37094675075560862</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="AE49">
+            <v>10.079776610894728</v>
+          </cell>
+          <cell r="AF49">
+            <v>0.19103874332247545</v>
+          </cell>
+          <cell r="AG49">
+            <v>22.682762459951714</v>
+          </cell>
+          <cell r="AH49">
+            <v>0.2553682854099345</v>
+          </cell>
+          <cell r="AI49">
+            <v>90.487463421151233</v>
+          </cell>
+          <cell r="AJ49">
+            <v>0.304890205451324</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="AE50">
+            <v>10.093039479588366</v>
+          </cell>
+          <cell r="AF50">
+            <v>0.20107638664285213</v>
+          </cell>
+          <cell r="AG50">
+            <v>23.022922655901372</v>
+          </cell>
+          <cell r="AH50">
+            <v>0.19258266172765448</v>
+          </cell>
+          <cell r="AI50">
+            <v>90.346821354874081</v>
+          </cell>
+          <cell r="AJ50">
+            <v>0.2748624519478885</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="AE51">
+            <v>10.074181398924477</v>
+          </cell>
+          <cell r="AF51">
+            <v>0.18536523220154633</v>
+          </cell>
+          <cell r="AG51">
+            <v>21.795551773363332</v>
+          </cell>
+          <cell r="AH51">
+            <v>0.2495066254712851</v>
+          </cell>
+          <cell r="AI51">
+            <v>90.475068079506499</v>
+          </cell>
+          <cell r="AJ51">
+            <v>0.32595735017744742</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="AE52">
+            <v>10.083395472967139</v>
+          </cell>
+          <cell r="AF52">
+            <v>0.20213651792163592</v>
+          </cell>
+          <cell r="AG52">
+            <v>21.318035385986096</v>
+          </cell>
+          <cell r="AH52">
+            <v>0.31127825775294138</v>
+          </cell>
+          <cell r="AI52">
+            <v>91.349355935554598</v>
+          </cell>
+          <cell r="AJ52">
+            <v>0.30168248670300252</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="AE53">
+            <v>10.151783262562928</v>
+          </cell>
+          <cell r="AF53">
+            <v>0.328343822062243</v>
+          </cell>
+          <cell r="AG53">
+            <v>21.193572540695772</v>
+          </cell>
+          <cell r="AH53">
+            <v>0.17045272152895596</v>
+          </cell>
+          <cell r="AI53">
+            <v>91.200331740971137</v>
+          </cell>
+          <cell r="AJ53">
+            <v>0.34724445239707818</v>
           </cell>
         </row>
       </sheetData>
@@ -543,6 +745,8 @@
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -811,21 +1015,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.83203125" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" customWidth="1"/>
     <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -871,13 +1075,17 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D16" si="0">_xlfn.CONCAT(I2,"
+        <f t="shared" ref="D2:D17" si="0">_xlfn.CONCAT(I2,"
 ",A2,"-",B2,"
 Cooling Plate Temp (C): ",E2,"
 Chamber Temp: (C): ",F2,"
 Humidity (%RH): ",G2
 )</f>
-        <v>Bare Glass Sample (control)_x000D_180217-BG1-T2_x000D_Cooling Plate Temp (C): 10.1 +/- 0.3_x000D_Chamber Temp: (C): 22.8 +/- 0_x000D_Humidity (%RH): 90 +/- 0.2</v>
+        <v>Bare Glass Sample (control)
+180217-BG1-T2
+Cooling Plate Temp (C): 10.1 +/- 0.3
+Chamber Temp: (C): 22.8 +/- 0
+Humidity (%RH): 90 +/- 0.2</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE33,1)," +/- ",ROUND([1]Data!AF33,1))</f>
@@ -907,7 +1115,11 @@
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hydrophobic Sample (control)_x000D_180217-HO1-T1_x000D_Cooling Plate Temp (C): 10.1 +/- 0.2_x000D_Chamber Temp: (C): 22.7 +/- 0.2_x000D_Humidity (%RH): 88.4 +/- 0.2</v>
+        <v>Hydrophobic Sample (control)
+180217-HO1-T1
+Cooling Plate Temp (C): 10.1 +/- 0.2
+Chamber Temp: (C): 22.7 +/- 0.2
+Humidity (%RH): 88.4 +/- 0.2</v>
       </c>
       <c r="E3" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE34,1)," +/- ",ROUND([1]Data!AF34,1))</f>
@@ -937,7 +1149,11 @@
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hydrophobic Sample (control)_x000D_180217-HO1-T2_x000D_Cooling Plate Temp (C): 10.1 +/- 0.3_x000D_Chamber Temp: (C): 23 +/- 0.3_x000D_Humidity (%RH): 89.9 +/- 0.3</v>
+        <v>Hydrophobic Sample (control)
+180217-HO1-T2
+Cooling Plate Temp (C): 10.1 +/- 0.3
+Chamber Temp: (C): 23 +/- 0.3
+Humidity (%RH): 89.9 +/- 0.3</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE35,1)," +/- ",ROUND([1]Data!AF35,1))</f>
@@ -967,7 +1183,11 @@
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hydrophobic Sample (control)_x000D_180217-HO1-T3_x000D_Cooling Plate Temp (C): 10.1 +/- 0.3_x000D_Chamber Temp: (C): 23 +/- 0.4_x000D_Humidity (%RH): 88.8 +/- 1.2</v>
+        <v>Hydrophobic Sample (control)
+180217-HO1-T3
+Cooling Plate Temp (C): 10.1 +/- 0.3
+Chamber Temp: (C): 23 +/- 0.4
+Humidity (%RH): 88.8 +/- 1.2</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE36,1)," +/- ",ROUND([1]Data!AF36,1))</f>
@@ -997,7 +1217,11 @@
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Bare Glass Sample (control)_x000D_180220-BG1-T1_x000D_Cooling Plate Temp (C): 10.1 +/- 0.2_x000D_Chamber Temp: (C): 23.1 +/- 0.2_x000D_Humidity (%RH): 91.9 +/- 0.4</v>
+        <v>Bare Glass Sample (control)
+180220-BG1-T1
+Cooling Plate Temp (C): 10.1 +/- 0.2
+Chamber Temp: (C): 23.1 +/- 0.2
+Humidity (%RH): 91.9 +/- 0.4</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE37,1)," +/- ",ROUND([1]Data!AF37,1))</f>
@@ -1015,7 +1239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1027,7 +1251,11 @@
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hybrid surface- 1mm features - 4mm distance - 2 rows on top_x000D_180221-HS1mm4mm2row-T1_x000D_Cooling Plate Temp (C): 10.3 +/- 0.7_x000D_Chamber Temp: (C): 22.9 +/- 0.7_x000D_Humidity (%RH): 89.6 +/- 0.4</v>
+        <v>Hybrid surface- 1mm features - 4mm distance - 2 rows on top
+180221-HS1mm4mm2row-T1
+Cooling Plate Temp (C): 10.3 +/- 0.7
+Chamber Temp: (C): 22.9 +/- 0.7
+Humidity (%RH): 89.6 +/- 0.4</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE38,1)," +/- ",ROUND([1]Data!AF38,1))</f>
@@ -1045,7 +1273,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1057,7 +1285,11 @@
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hybrid surface- 1mm features - 4mm distance - 2 rows on top_x000D_180221-HS1mm4mm2row-T2_x000D_Cooling Plate Temp (C): 10.1 +/- 0.2_x000D_Chamber Temp: (C): 22.9 +/- 0.7_x000D_Humidity (%RH): 91.5 +/- 0.3</v>
+        <v>Hybrid surface- 1mm features - 4mm distance - 2 rows on top
+180221-HS1mm4mm2row-T2
+Cooling Plate Temp (C): 10.1 +/- 0.2
+Chamber Temp: (C): 22.9 +/- 0.7
+Humidity (%RH): 91.5 +/- 0.3</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE39,1)," +/- ",ROUND([1]Data!AF39,1))</f>
@@ -1075,7 +1307,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1087,7 +1319,11 @@
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hybrid surface- 1mm features - 4mm distance - 2 rows on top_x000D_180221-HS1mm4mm2row-T3_x000D_Cooling Plate Temp (C): 10.1 +/- 0.3_x000D_Chamber Temp: (C): 23.7 +/- 0.3_x000D_Humidity (%RH): 90.9 +/- 0.3</v>
+        <v>Hybrid surface- 1mm features - 4mm distance - 2 rows on top
+180221-HS1mm4mm2row-T3
+Cooling Plate Temp (C): 10.1 +/- 0.3
+Chamber Temp: (C): 23.7 +/- 0.3
+Humidity (%RH): 90.9 +/- 0.3</v>
       </c>
       <c r="E9" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE40,1)," +/- ",ROUND([1]Data!AF40,1))</f>
@@ -1105,7 +1341,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1117,7 +1353,11 @@
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows on top_x000D_180222-HS2mm4mm2row-T1_x000D_Cooling Plate Temp (C): 10.1 +/- 0.2_x000D_Chamber Temp: (C): 24.1 +/- 0.3_x000D_Humidity (%RH): 90.1 +/- 0.4</v>
+        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows on top
+180222-HS2mm4mm2row-T1
+Cooling Plate Temp (C): 10.1 +/- 0.2
+Chamber Temp: (C): 24.1 +/- 0.3
+Humidity (%RH): 90.1 +/- 0.4</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE41,1)," +/- ",ROUND([1]Data!AF41,1))</f>
@@ -1135,7 +1375,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1147,7 +1387,11 @@
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows on top_x000D_180222-HS2mm4mm2row-T2_x000D_Cooling Plate Temp (C): 10.1 +/- 0.2_x000D_Chamber Temp: (C): 23.5 +/- 0.3_x000D_Humidity (%RH): 90.1 +/- 0.3</v>
+        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows on top
+180222-HS2mm4mm2row-T2
+Cooling Plate Temp (C): 10.1 +/- 0.2
+Chamber Temp: (C): 23.5 +/- 0.3
+Humidity (%RH): 90.1 +/- 0.3</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE42,1)," +/- ",ROUND([1]Data!AF42,1))</f>
@@ -1165,7 +1409,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1177,7 +1421,11 @@
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows on top_x000D_180222-HS2mm4mm2row-T3_x000D_Cooling Plate Temp (C): 10.1 +/- 0.2_x000D_Chamber Temp: (C): 24.1 +/- 0.3_x000D_Humidity (%RH): 89.5 +/- 0.3</v>
+        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows on top
+180222-HS2mm4mm2row-T3
+Cooling Plate Temp (C): 10.1 +/- 0.2
+Chamber Temp: (C): 24.1 +/- 0.3
+Humidity (%RH): 89.5 +/- 0.3</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE43,1)," +/- ",ROUND([1]Data!AF43,1))</f>
@@ -1207,7 +1455,11 @@
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Bare Glass Sample (control)_x000D_180225-BG3-T1_x000D_Cooling Plate Temp (C): 10.1 +/- 0.2_x000D_Chamber Temp: (C): 23.9 +/- 0.3_x000D_Humidity (%RH): 89.4 +/- 0.4</v>
+        <v>Bare Glass Sample (control)
+180225-BG3-T1
+Cooling Plate Temp (C): 10.1 +/- 0.2
+Chamber Temp: (C): 23.9 +/- 0.3
+Humidity (%RH): 89.4 +/- 0.4</v>
       </c>
       <c r="E13" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE44,1)," +/- ",ROUND([1]Data!AF44,1))</f>
@@ -1225,7 +1477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1237,7 +1489,11 @@
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows in the middle_x000D_180227-HS2mm4mm2row-mid-T1_x000D_Cooling Plate Temp (C): 10.1 +/- 0.2_x000D_Chamber Temp: (C): 24.1 +/- 0.3_x000D_Humidity (%RH): 89.6 +/- 0.3</v>
+        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows in the middle
+180227-HS2mm4mm2row-mid-T1
+Cooling Plate Temp (C): 10.1 +/- 0.2
+Chamber Temp: (C): 24.1 +/- 0.3
+Humidity (%RH): 89.6 +/- 0.3</v>
       </c>
       <c r="E14" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE45,1)," +/- ",ROUND([1]Data!AF45,1))</f>
@@ -1255,7 +1511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1267,7 +1523,11 @@
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows in the middle_x000D_180227-HS2mm4mm2row-mid-T2_x000D_Cooling Plate Temp (C): 10.1 +/- 0.2_x000D_Chamber Temp: (C): 22.8 +/- 0.5_x000D_Humidity (%RH): 90.4 +/- 0.5</v>
+        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows in the middle
+180227-HS2mm4mm2row-mid-T2
+Cooling Plate Temp (C): 10.1 +/- 0.2
+Chamber Temp: (C): 22.8 +/- 0.5
+Humidity (%RH): 90.4 +/- 0.5</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE46,1)," +/- ",ROUND([1]Data!AF46,1))</f>
@@ -1285,7 +1545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1297,22 +1557,190 @@
       </c>
       <c r="D16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows in the middle_x000D_180227-HS2mm4mm2row-mid-T3_x000D_Cooling Plate Temp (C): 0 +/- 0_x000D_Chamber Temp: (C): 0 +/- 0_x000D_Humidity (%RH): 0 +/- 0</v>
+        <v>Hybrid surface- 2mm features - 4mm distance - 2 rows in the middle
+180227-HS2mm4mm2row-mid-T3
+Cooling Plate Temp (C): 10.1 +/- 0.2
+Chamber Temp: (C): 22.3 +/- 0.4
+Humidity (%RH): 90.4 +/- 0.4</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE47,1)," +/- ",ROUND([1]Data!AF47,1))</f>
-        <v>0 +/- 0</v>
+        <v>10.1 +/- 0.2</v>
       </c>
       <c r="F16" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AG47,1)," +/- ",ROUND([1]Data!AH47,1))</f>
-        <v>0 +/- 0</v>
+        <v>22.3 +/- 0.4</v>
       </c>
       <c r="G16" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AI47,1)," +/- ",ROUND([1]Data!AJ47,1))</f>
-        <v>0 +/- 0</v>
+        <v>90.4 +/- 0.4</v>
       </c>
       <c r="I16" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Hybrid surface- 2mm features - 4mm distance - entire surface - staggered confirmation
+180305-HS2mm4mm2x5row-staggered-T1
+Cooling Plate Temp (C): 10.1 +/- 0.2
+Chamber Temp: (C): 22.5 +/- 0.2
+Humidity (%RH): 90.1 +/- 0.4</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE48,1)," +/- ",ROUND([1]Data!AF48,1))</f>
+        <v>10.1 +/- 0.2</v>
+      </c>
+      <c r="F17" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG48,1)," +/- ",ROUND([1]Data!AH48,1))</f>
+        <v>22.5 +/- 0.2</v>
+      </c>
+      <c r="G17" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI48,1)," +/- ",ROUND([1]Data!AJ48,1))</f>
+        <v>90.1 +/- 0.4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE49,1)," +/- ",ROUND([1]Data!AF49,1))</f>
+        <v>10.1 +/- 0.2</v>
+      </c>
+      <c r="F18" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG49,1)," +/- ",ROUND([1]Data!AH49,1))</f>
+        <v>22.7 +/- 0.3</v>
+      </c>
+      <c r="G18" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI49,1)," +/- ",ROUND([1]Data!AJ49,1))</f>
+        <v>90.5 +/- 0.3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE50,1)," +/- ",ROUND([1]Data!AF50,1))</f>
+        <v>10.1 +/- 0.2</v>
+      </c>
+      <c r="F19" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG50,1)," +/- ",ROUND([1]Data!AH50,1))</f>
+        <v>23 +/- 0.2</v>
+      </c>
+      <c r="G19" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI50,1)," +/- ",ROUND([1]Data!AJ50,1))</f>
+        <v>90.3 +/- 0.3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE51,1)," +/- ",ROUND([1]Data!AF51,1))</f>
+        <v>10.1 +/- 0.2</v>
+      </c>
+      <c r="F20" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG51,1)," +/- ",ROUND([1]Data!AH51,1))</f>
+        <v>21.8 +/- 0.2</v>
+      </c>
+      <c r="G20" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI51,1)," +/- ",ROUND([1]Data!AJ51,1))</f>
+        <v>90.5 +/- 0.3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE52,1)," +/- ",ROUND([1]Data!AF52,1))</f>
+        <v>10.1 +/- 0.2</v>
+      </c>
+      <c r="F21" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG52,1)," +/- ",ROUND([1]Data!AH52,1))</f>
+        <v>21.3 +/- 0.3</v>
+      </c>
+      <c r="G21" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI52,1)," +/- ",ROUND([1]Data!AJ52,1))</f>
+        <v>91.3 +/- 0.3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE53,1)," +/- ",ROUND([1]Data!AF53,1))</f>
+        <v>10.2 +/- 0.3</v>
+      </c>
+      <c r="F22" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG53,1)," +/- ",ROUND([1]Data!AH53,1))</f>
+        <v>21.2 +/- 0.2</v>
+      </c>
+      <c r="G22" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI53,1)," +/- ",ROUND([1]Data!AJ53,1))</f>
+        <v>91.2 +/- 0.3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/videosExcel.xlsx
+++ b/videosExcel.xlsx
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A1:AE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1064,7 +1064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D17" si="0">_xlfn.CONCAT(I2,"
+        <f t="shared" ref="D2:D22" si="0">_xlfn.CONCAT(I2,"
 ",A2,"-",B2,"
 Cooling Plate Temp (C): ",E2,"
 Chamber Temp: (C): ",F2,"
@@ -1103,7 +1103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1622,6 +1622,14 @@
       </c>
       <c r="C18" t="s">
         <v>38</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Hybrid surface- 2mm features - 4mm distance - entire surface - staggered confirmation
+180305-HS2mm4mm2x5row-staggered-T2
+Cooling Plate Temp (C): 10.1 +/- 0.2
+Chamber Temp: (C): 22.7 +/- 0.3
+Humidity (%RH): 90.5 +/- 0.3</v>
       </c>
       <c r="E18" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE49,1)," +/- ",ROUND([1]Data!AF49,1))</f>
@@ -1639,7 +1647,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -1648,6 +1656,14 @@
       </c>
       <c r="C19" t="s">
         <v>34</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Hybrid surface- 2mm features - 4mm distance - entire surface - staggered confirmation
+180305-HS2mm4mm2x5row-staggered-T3
+Cooling Plate Temp (C): 10.1 +/- 0.2
+Chamber Temp: (C): 23 +/- 0.2
+Humidity (%RH): 90.3 +/- 0.3</v>
       </c>
       <c r="E19" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE50,1)," +/- ",ROUND([1]Data!AF50,1))</f>
@@ -1665,7 +1681,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -1674,6 +1690,14 @@
       </c>
       <c r="C20" t="s">
         <v>35</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Hybrid surface- 2mm features - 4mm distance - entire surface - cubic confirmation
+180305-HS2mm4mm2x5row-cubic-T1
+Cooling Plate Temp (C): 10.1 +/- 0.2
+Chamber Temp: (C): 21.8 +/- 0.2
+Humidity (%RH): 90.5 +/- 0.3</v>
       </c>
       <c r="E20" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE51,1)," +/- ",ROUND([1]Data!AF51,1))</f>
@@ -1691,7 +1715,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -1700,6 +1724,14 @@
       </c>
       <c r="C21" t="s">
         <v>36</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Hybrid surface- 2mm features - 4mm distance - entire surface - cubic confirmation
+180305-HS2mm4mm2x5row-cubic-T2
+Cooling Plate Temp (C): 10.1 +/- 0.2
+Chamber Temp: (C): 21.3 +/- 0.3
+Humidity (%RH): 91.3 +/- 0.3</v>
       </c>
       <c r="E21" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE52,1)," +/- ",ROUND([1]Data!AF52,1))</f>
@@ -1717,7 +1749,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -1726,6 +1758,14 @@
       </c>
       <c r="C22" t="s">
         <v>37</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Hybrid surface- 2mm features - 4mm distance - entire surface - cubic confirmation
+180305-HS2mm4mm2x5row-cubic-T3
+Cooling Plate Temp (C): 10.2 +/- 0.3
+Chamber Temp: (C): 21.2 +/- 0.2
+Humidity (%RH): 91.2 +/- 0.3</v>
       </c>
       <c r="E22" s="1" t="str">
         <f>_xlfn.CONCAT(ROUND([1]Data!AE53,1)," +/- ",ROUND([1]Data!AF53,1))</f>

--- a/videosExcel.xlsx
+++ b/videosExcel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="videos" sheetId="1" r:id="rId1"/>
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A1:AE22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/videosExcel.xlsx
+++ b/videosExcel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/illyanayshevskyy/WebstormProjects/Condensation_Experiments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/illyanayshevskyy/Dropbox/3-Ph.D. Research/0.Hybrid Surfaces/Software Developement/Condensation_Experiments_Web/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="videos" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="66">
   <si>
     <t>T2</t>
   </si>
@@ -153,13 +153,88 @@
   </si>
   <si>
     <t>Hybrid surface- 2mm features - 4mm distance - entire surface - cubic confirmation</t>
+  </si>
+  <si>
+    <t>180313-HS2mm4mm1row-top</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/XQJSWZGoJ30</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/gx237BvyV_k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/sOEWExPiBqQ</t>
+  </si>
+  <si>
+    <t>180317-HS2mm2mm1row-top</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/6U0GznZzAtU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/1-S3k3ZLpPg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/T2rO4Xo4Cs8</t>
+  </si>
+  <si>
+    <t>180320-HS2mm8mm1row-top</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ZX3lvy0-g3g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/UbBbWFdeayU</t>
+  </si>
+  <si>
+    <t>180331-HO2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/l1P_TwA0TmQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ipZuft0hGts</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/geeVd0xUL8o</t>
+  </si>
+  <si>
+    <t>180403-BG2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/Bjs4wAzRpC8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/K0DH_DqpMAU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/Tz6I7hdHejU</t>
+  </si>
+  <si>
+    <t>180411-HS3mm4mm2row</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/npSs3QOZwpY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ffDPeoqN26w</t>
+  </si>
+  <si>
+    <t>180416-HS2mm4mm2row-TopMid</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/PcyUJxIPll0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/f8cbedwlnz0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,6 +245,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,12 +301,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent2" xfId="1" builtinId="35"/>
@@ -244,13 +328,22 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Summary"/>
       <sheetName val="Data"/>
-      <sheetName val="Summary"/>
-      <sheetName val="180308-HS2mmALL-cu"/>
-      <sheetName val="180305-HS2mmALL-st"/>
-      <sheetName val="180227-HS-2mm-mid"/>
-      <sheetName val="180220-HS-2mm"/>
-      <sheetName val="180218-HS-1mm"/>
+      <sheetName val="2mm4mm2rowTopMId"/>
+      <sheetName val="3mm4mm2row"/>
+      <sheetName val="180407-2mm4mm2row"/>
+      <sheetName val="180403-BG2"/>
+      <sheetName val="180331-HO2"/>
+      <sheetName val="2mm-8mm-1mm"/>
+      <sheetName val="2mm-4mm-1row"/>
+      <sheetName val="2mm-2mm-1row"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="2mmALL-cu"/>
+      <sheetName val="2mmALL-st"/>
+      <sheetName val="2mm-mid"/>
+      <sheetName val="2mm"/>
+      <sheetName val="1mm"/>
       <sheetName val="Sheet1"/>
       <sheetName val="180217-HO"/>
       <sheetName val="180217-BG"/>
@@ -276,7 +369,8 @@
       <sheetName val="Hydrophobic"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="32">
           <cell r="AE32">
             <v>10.130210030926555</v>
@@ -718,7 +812,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -747,6 +840,15 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1015,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:I22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,7 +1177,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D22" si="0">_xlfn.CONCAT(I2,"
+        <f t="shared" ref="D2:D40" si="0">_xlfn.CONCAT(I2,"
 ",A2,"-",B2,"
 Cooling Plate Temp (C): ",E2,"
 Chamber Temp: (C): ",F2,"
@@ -1783,6 +1885,564 @@
         <v>40</v>
       </c>
     </row>
+    <row r="23" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+180313-HS2mm4mm1row-top-T1
+Cooling Plate Temp (C): 0 +/- 0
+Chamber Temp: (C): 0 +/- 0
+Humidity (%RH): 0 +/- 0</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE54,1)," +/- ",ROUND([1]Data!AF54,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="F23" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG54,1)," +/- ",ROUND([1]Data!AH54,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="G23" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI54,1)," +/- ",ROUND([1]Data!AJ54,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+180313-HS2mm4mm1row-top-T2
+Cooling Plate Temp (C): 0 +/- 0
+Chamber Temp: (C): 0 +/- 0
+Humidity (%RH): 0 +/- 0</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE55,1)," +/- ",ROUND([1]Data!AF55,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="F24" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG55,1)," +/- ",ROUND([1]Data!AH55,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="G24" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI55,1)," +/- ",ROUND([1]Data!AJ55,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+180313-HS2mm4mm1row-top-T3
+Cooling Plate Temp (C): 0 +/- 0
+Chamber Temp: (C): 0 +/- 0
+Humidity (%RH): 0 +/- 0</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE56,1)," +/- ",ROUND([1]Data!AF56,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="F25" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG56,1)," +/- ",ROUND([1]Data!AH56,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="G25" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI56,1)," +/- ",ROUND([1]Data!AJ56,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+180317-HS2mm2mm1row-top-T1
+Cooling Plate Temp (C): 0 +/- 0
+Chamber Temp: (C): 0 +/- 0
+Humidity (%RH): 0 +/- 0</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE57,1)," +/- ",ROUND([1]Data!AF57,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="F26" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG57,1)," +/- ",ROUND([1]Data!AH57,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="G26" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI57,1)," +/- ",ROUND([1]Data!AJ57,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+180317-HS2mm2mm1row-top-T2
+Cooling Plate Temp (C): 0 +/- 0
+Chamber Temp: (C): 0 +/- 0
+Humidity (%RH): 0 +/- 0</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE58,1)," +/- ",ROUND([1]Data!AF58,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="F27" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG58,1)," +/- ",ROUND([1]Data!AH58,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="G27" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI58,1)," +/- ",ROUND([1]Data!AJ58,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+180317-HS2mm2mm1row-top-T3
+Cooling Plate Temp (C): 0 +/- 0
+Chamber Temp: (C): 0 +/- 0
+Humidity (%RH): 0 +/- 0</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE59,1)," +/- ",ROUND([1]Data!AF59,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="F28" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG59,1)," +/- ",ROUND([1]Data!AH59,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="G28" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI59,1)," +/- ",ROUND([1]Data!AJ59,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+180320-HS2mm8mm1row-top-T2
+Cooling Plate Temp (C): 0 +/- 0
+Chamber Temp: (C): 0 +/- 0
+Humidity (%RH): 0 +/- 0</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE60,1)," +/- ",ROUND([1]Data!AF60,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="F29" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG60,1)," +/- ",ROUND([1]Data!AH60,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="G29" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI60,1)," +/- ",ROUND([1]Data!AJ60,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+180320-HS2mm8mm1row-top-T3
+Cooling Plate Temp (C): 0 +/- 0
+Chamber Temp: (C): 0 +/- 0
+Humidity (%RH): 0 +/- 0</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE61,1)," +/- ",ROUND([1]Data!AF61,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="F30" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG61,1)," +/- ",ROUND([1]Data!AH61,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="G30" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI61,1)," +/- ",ROUND([1]Data!AJ61,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+180331-HO2-T1
+Cooling Plate Temp (C): 0 +/- 0
+Chamber Temp: (C): 0 +/- 0
+Humidity (%RH): 0 +/- 0</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE62,1)," +/- ",ROUND([1]Data!AF62,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="F31" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG62,1)," +/- ",ROUND([1]Data!AH62,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="G31" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI62,1)," +/- ",ROUND([1]Data!AJ62,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+180331-HO2-T2
+Cooling Plate Temp (C): 0 +/- 0
+Chamber Temp: (C): 0 +/- 0
+Humidity (%RH): 0 +/- 0</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE63,1)," +/- ",ROUND([1]Data!AF63,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="F32" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG63,1)," +/- ",ROUND([1]Data!AH63,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="G32" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI63,1)," +/- ",ROUND([1]Data!AJ63,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+180331-HO2-T3
+Cooling Plate Temp (C): 0 +/- 0
+Chamber Temp: (C): 0 +/- 0
+Humidity (%RH): 0 +/- 0</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE64,1)," +/- ",ROUND([1]Data!AF64,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="F33" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG64,1)," +/- ",ROUND([1]Data!AH64,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="G33" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI64,1)," +/- ",ROUND([1]Data!AJ64,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+180403-BG2-T1
+Cooling Plate Temp (C): 0 +/- 0
+Chamber Temp: (C): 0 +/- 0
+Humidity (%RH): 0 +/- 0</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE65,1)," +/- ",ROUND([1]Data!AF65,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="F34" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG65,1)," +/- ",ROUND([1]Data!AH65,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="G34" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI65,1)," +/- ",ROUND([1]Data!AJ65,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+180403-BG2-T2
+Cooling Plate Temp (C): 0 +/- 0
+Chamber Temp: (C): 0 +/- 0
+Humidity (%RH): 0 +/- 0</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE66,1)," +/- ",ROUND([1]Data!AF66,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="F35" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG66,1)," +/- ",ROUND([1]Data!AH66,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="G35" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI66,1)," +/- ",ROUND([1]Data!AJ66,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+180403-BG2-T3
+Cooling Plate Temp (C): 0 +/- 0
+Chamber Temp: (C): 0 +/- 0
+Humidity (%RH): 0 +/- 0</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE67,1)," +/- ",ROUND([1]Data!AF67,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="F36" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG67,1)," +/- ",ROUND([1]Data!AH67,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="G36" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI67,1)," +/- ",ROUND([1]Data!AJ67,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+180411-HS3mm4mm2row-T1
+Cooling Plate Temp (C): 0 +/- 0
+Chamber Temp: (C): 0 +/- 0
+Humidity (%RH): 0 +/- 0</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE68,1)," +/- ",ROUND([1]Data!AF68,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="F37" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG68,1)," +/- ",ROUND([1]Data!AH68,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="G37" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI68,1)," +/- ",ROUND([1]Data!AJ68,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+180411-HS3mm4mm2row-T2
+Cooling Plate Temp (C): 0 +/- 0
+Chamber Temp: (C): 0 +/- 0
+Humidity (%RH): 0 +/- 0</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE69,1)," +/- ",ROUND([1]Data!AF69,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="F38" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG69,1)," +/- ",ROUND([1]Data!AH69,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="G38" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI69,1)," +/- ",ROUND([1]Data!AJ69,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+180416-HS2mm4mm2row-TopMid-T1
+Cooling Plate Temp (C): 0 +/- 0
+Chamber Temp: (C): 0 +/- 0
+Humidity (%RH): 0 +/- 0</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE70,1)," +/- ",ROUND([1]Data!AF70,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="F39" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG70,1)," +/- ",ROUND([1]Data!AH70,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="G39" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI70,1)," +/- ",ROUND([1]Data!AJ70,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+180416-HS2mm4mm2row-TopMid-T2
+Cooling Plate Temp (C): 0 +/- 0
+Chamber Temp: (C): 0 +/- 0
+Humidity (%RH): 0 +/- 0</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AE71,1)," +/- ",ROUND([1]Data!AF71,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="F40" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AG71,1)," +/- ",ROUND([1]Data!AH71,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+      <c r="G40" t="str">
+        <f>_xlfn.CONCAT(ROUND([1]Data!AI71,1)," +/- ",ROUND([1]Data!AJ71,1))</f>
+        <v>0 +/- 0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
